--- a/data_year/zb/国民经济核算/三次产业对国内生产总值增长的拉动.xlsx
+++ b/data_year/zb/国民经济核算/三次产业对国内生产总值增长的拉动.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,400 +458,248 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.4900934073</v>
+        <v>10.6358710642</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3516083493</v>
+        <v>0.3800041493</v>
       </c>
       <c r="D2" t="n">
-        <v>3.0766902657</v>
+        <v>4.150140731</v>
       </c>
       <c r="E2" t="n">
-        <v>5.0617947923</v>
+        <v>6.105726184</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.3357334774</v>
+        <v>9.550832179</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3871697104</v>
+        <v>0.3892598588</v>
       </c>
       <c r="D3" t="n">
-        <v>4.0819700556</v>
+        <v>4.1915701758</v>
       </c>
       <c r="E3" t="n">
-        <v>3.8665937114</v>
+        <v>4.9700021445</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.1336307905</v>
+        <v>7.8637364488</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3754108112</v>
+        <v>0.3960712911</v>
       </c>
       <c r="D4" t="n">
-        <v>4.2460681819</v>
+        <v>3.5383618248</v>
       </c>
       <c r="E4" t="n">
-        <v>4.5121517974</v>
+        <v>3.929303333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.0380304802</v>
+        <v>7.7661500977</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3103760679</v>
+        <v>0.3269711066</v>
       </c>
       <c r="D5" t="n">
-        <v>3.9109212027</v>
+        <v>3.6693324908</v>
       </c>
       <c r="E5" t="n">
-        <v>5.8167332096</v>
+        <v>3.7698465003</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.113621378</v>
+        <v>7.4257636562</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7431712995</v>
+        <v>0.335084272</v>
       </c>
       <c r="D6" t="n">
-        <v>4.1300057456</v>
+        <v>3.7064307896</v>
       </c>
       <c r="E6" t="n">
-        <v>5.2404443329</v>
+        <v>3.3842485946</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.3945918098</v>
+        <v>7.0413288787</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5951683967</v>
+        <v>0.3123807995</v>
       </c>
       <c r="D7" t="n">
-        <v>5.0435956634</v>
+        <v>3.9329156768</v>
       </c>
       <c r="E7" t="n">
-        <v>5.7558277496</v>
+        <v>2.7960324024</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.7209556654</v>
+        <v>6.848762205</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5535855138</v>
+        <v>0.2749107109</v>
       </c>
       <c r="D8" t="n">
-        <v>5.842506286</v>
+        <v>4.1105129923</v>
       </c>
       <c r="E8" t="n">
-        <v>6.3248638655</v>
+        <v>2.4633385018</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.2308609334</v>
+        <v>6.9472007933</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3812174598</v>
+        <v>0.3211306074</v>
       </c>
       <c r="D9" t="n">
-        <v>6.7265925179</v>
+        <v>4.2477142266</v>
       </c>
       <c r="E9" t="n">
-        <v>7.1230509557</v>
+        <v>2.3783559593</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.650678919100001</v>
+        <v>6.7497738325</v>
       </c>
       <c r="C10" t="n">
-        <v>0.505532939</v>
+        <v>0.2744671563</v>
       </c>
       <c r="D10" t="n">
-        <v>4.4552271656</v>
+        <v>4.1513883858</v>
       </c>
       <c r="E10" t="n">
-        <v>4.6899188144</v>
+        <v>2.3239182904</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.3987256328</v>
+        <v>5.95050075377537</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3763415734</v>
+        <v>0.235042963259951</v>
       </c>
       <c r="D11" t="n">
-        <v>4.1077208779</v>
+        <v>3.77729544864209</v>
       </c>
       <c r="E11" t="n">
-        <v>4.9146631815</v>
+        <v>1.93816234187333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.6358710642</v>
+        <v>2.23863835626837</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3800041493</v>
+        <v>0.232702784245946</v>
       </c>
       <c r="D12" t="n">
-        <v>4.150140731</v>
+        <v>1.03609211804918</v>
       </c>
       <c r="E12" t="n">
-        <v>6.105726184</v>
+        <v>0.969843453973227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.550832179</v>
+        <v>8.4</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3892598588</v>
+        <v>0.5</v>
       </c>
       <c r="D13" t="n">
-        <v>4.1915701758</v>
+        <v>4.6</v>
       </c>
       <c r="E13" t="n">
-        <v>4.9700021445</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.8637364488</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3960712911</v>
+        <v>0.3</v>
       </c>
       <c r="D14" t="n">
-        <v>3.5383618248</v>
+        <v>1.3</v>
       </c>
       <c r="E14" t="n">
-        <v>3.929303333</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7.7661500977</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3269711066</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3.6693324908</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3.7698465003</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>7.4257636562</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.335084272</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3.7064307896</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3.3842485946</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7.0413288787</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3123807995</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3.9329156768</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2.7960324024</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>6.848762205</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.2749107109</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4.1105129923</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2.4633385018</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6.9472007933</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3211306074</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4.2477142266</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2.3783559593</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>6.7497738325</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.2744671563</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4.1513883858</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2.3239182904</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>5.95050075377537</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.235042963259951</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3.77729544864209</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1.93816234187333</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
